--- a/8_August/opuri_export.xlsx
+++ b/8_August/opuri_export.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OP-uri" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="OP-uri" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4020,9 +4020,19 @@
     </row>
     <row r="279"/>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>OLP1.5125561</t>
+        </is>
+      </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>eMag Perioada 2025-07-16 - 2025-07-31 (nortia_dp_12823661_02_08_2025 (2).xlsx + nortia_dp_12823666_02_08_2025 (5).xlsx)</t>
+          <t>eMag Perioada 2025-07-16 - 2025-07-31 (nortia_dp_12823661_02_08_2025 (4).xlsx + nortia_dp_12823666_02_08_2025 (8).xlsx)</t>
         </is>
       </c>
       <c r="D280" s="2" t="inlineStr">
@@ -5483,7 +5493,2221 @@
         </is>
       </c>
       <c r="G349" s="4" t="n">
-        <v>5877.26</v>
+        <v>6051.51</v>
+      </c>
+    </row>
+    <row r="350"/>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>OLP1.5205046</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>eMag Perioada 2025-08-01 - 2025-08-15 (nortia_dp_12937396_17_08_2025 (1).xlsx + nortia_dp_12937390_17_08_2025 (1).xlsx)</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="inlineStr">
+        <is>
+          <t>eMag</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>432896073</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>233427</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>58.44</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="D352" s="2" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>432966803</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>233440</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>358.24</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="D353" s="2" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>433031361</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>233441</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="D354" s="2" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>433085585</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>233445</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>67.24</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="D355" s="2" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>433088341</t>
+        </is>
+      </c>
+      <c r="F355" t="n">
+        <v>233425</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="D356" s="2" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>433113596</t>
+        </is>
+      </c>
+      <c r="F356" s="1" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>1162.15</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="D357" s="2" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>433184472</t>
+        </is>
+      </c>
+      <c r="F357" t="n">
+        <v>233456</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>100.28</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="D358" s="2" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>433176373</t>
+        </is>
+      </c>
+      <c r="F358" t="n">
+        <v>233472</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>176.81</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="D359" s="2" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>433233441</t>
+        </is>
+      </c>
+      <c r="F359" t="n">
+        <v>233515</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>145.10</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="D360" s="2" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>433317192</t>
+        </is>
+      </c>
+      <c r="F360" t="n">
+        <v>233461</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>212.95</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="D361" s="2" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>433321341</t>
+        </is>
+      </c>
+      <c r="F361" t="n">
+        <v>233516</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>177.08</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="D362" s="2" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>433393814</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>233518</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>127.65</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="D363" s="2" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>433468841</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>233474</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="D364" s="2" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>433474930</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>233521</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>873.50</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="D365" s="2" t="inlineStr"/>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>433503845</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>233497</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="D366" s="2" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>433596930</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>233500</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="D367" s="2" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>433672592</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>233522</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="D368" s="2" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>433732592</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>233541</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>351.67</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="D369" s="2" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>433747185</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>233542</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>131.61</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="D370" s="2" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>433841082</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>233538</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="D371" s="2" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>433843690</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>233567</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>354.86</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="D372" s="2" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>434102354</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>233564</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="D373" s="2" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>434105216</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>233565</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>101.63</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="D374" s="2" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>434115855</t>
+        </is>
+      </c>
+      <c r="F374" s="1" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>126.74</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="D375" s="2" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>434142228</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>233552</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="D376" s="2" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>434224672</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>233551</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>59.53</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="D377" s="2" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>432440392</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>233404</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="D378" s="2" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>432383129</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>233421</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>109.68</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="D379" s="2" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>432963072</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>233426</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>959.37</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="D380" s="2" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>433060105</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>233443</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="D381" s="2" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>433059229</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>233442</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>218.02</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="D382" s="2" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>433062184</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>233444</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>188.50</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="D383" s="2" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>432870483</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>233428</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>141.76</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="D384" s="2" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>433331563</t>
+        </is>
+      </c>
+      <c r="F384" t="n">
+        <v>233484</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="D385" s="2" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>433572591</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>233499</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>101.64</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="D386" s="2" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>433426227</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>233519</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="D387" s="2" t="inlineStr"/>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>433040119</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>233537</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="D388" s="2" t="inlineStr"/>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>433705051</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>233513</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="D389" s="2" t="inlineStr"/>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>433614622</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>233520</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>126.74</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="D390" s="2" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>433759710</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>233543</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>197.88</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="D391" s="2" t="inlineStr"/>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>433697873</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>233523</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>-12.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="D392" s="2" t="inlineStr"/>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>433857234</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>233553</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>101.64</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Suma plătită eMag:</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>6422.78</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Comision eMag cu TVA:</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>1427.36</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="F395" s="4" t="inlineStr">
+        <is>
+          <t>Total OP eMag:</t>
+        </is>
+      </c>
+      <c r="G395" s="4" t="n">
+        <v>5099.02</v>
+      </c>
+    </row>
+    <row r="396"/>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>OLP1.5270912</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>eMag Perioada 2025-08-16 - 2025-08-31 (nortia_dp_13052276_02_09_2025 (1).xlsx + nortia_dp_13052275_02_09_2025 (1).xlsx)</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="inlineStr">
+        <is>
+          <t>eMag</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>433553635</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>233498</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>173.07</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="D398" s="2" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>433967147</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>233585</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>115.36</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="D399" s="2" t="inlineStr"/>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>434133372</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>233586</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>119.14</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="D400" s="2" t="inlineStr"/>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>434248196</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>233587</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>60.55</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="D401" s="2" t="inlineStr"/>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>434279025</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>233589</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>52.87</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="D402" s="2" t="inlineStr"/>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>434341240</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>233603</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="D403" s="2" t="inlineStr"/>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>434654651</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>233604</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="D404" s="2" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>434705613</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>233605</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>211.34</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="D405" s="2" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>434706529</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>233606</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>287.88</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="D406" s="2" t="inlineStr"/>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>434849789</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>233607</v>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>126.74</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="D407" s="2" t="inlineStr"/>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>434957070</t>
+        </is>
+      </c>
+      <c r="F407" s="1" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>101.64</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="D408" s="2" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>435064038</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>233669</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>307.73</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="D409" s="2" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>435153351</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>233640</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>106.44</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="D410" s="2" t="inlineStr"/>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>435161468</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>233609</v>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="D411" s="2" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>435162426</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>233676</v>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>151.34</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="D412" s="2" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>435185928</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>233639</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="D413" s="2" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>435192250</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>233638</v>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="D414" s="2" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>435225745</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>233637</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>73.37</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="D415" s="2" t="inlineStr"/>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>435345171</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>233650</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>60.29</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="D416" s="2" t="inlineStr"/>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>435382117</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>233661</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>70.62</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="D417" s="2" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>435401284</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>233662</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>59.53</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="D418" s="2" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>435407846</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>233697</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>284.22</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="D419" s="2" t="inlineStr"/>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>435503393</t>
+        </is>
+      </c>
+      <c r="F419" t="n">
+        <v>233694</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>59.53</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="D420" s="2" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>435609685</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>233696</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="D421" s="2" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>435777395</t>
+        </is>
+      </c>
+      <c r="F421" s="1" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="D422" s="2" t="inlineStr"/>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>435835958</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>233721</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="D423" s="2" t="inlineStr"/>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>435839076</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>233720</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>59.53</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="D424" s="2" t="inlineStr"/>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>436052741</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>233713</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>322.26</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="D425" s="2" t="inlineStr"/>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>436156273</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>233689</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="D426" s="2" t="inlineStr"/>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>436158438</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>233712</v>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>49.32</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="D427" s="2" t="inlineStr"/>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>436178157</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>233727</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>59.53</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="D428" s="2" t="inlineStr"/>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>436189698</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>233728</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>60.80</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="D429" s="2" t="inlineStr"/>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>436207817</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>233733</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>252.16</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="D430" s="2" t="inlineStr"/>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>436218766</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>233730</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>73.37</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="D431" s="2" t="inlineStr"/>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>436260867</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>233729</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>73.37</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="D432" s="2" t="inlineStr"/>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>436286826</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>233734</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>125.28</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="D433" s="2" t="inlineStr"/>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>436290464</t>
+        </is>
+      </c>
+      <c r="F433" s="1" t="inlineStr">
+        <is>
+          <t>Canceled</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>550.5599999999999</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="D434" s="2" t="inlineStr"/>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>433693276</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>233574</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>151.34</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="D435" s="2" t="inlineStr"/>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>433969220</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>233566</v>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>183.28</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="D436" s="2" t="inlineStr"/>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>434744756</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>233590</v>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>169.24</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="D437" s="2" t="inlineStr"/>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>434966817</t>
+        </is>
+      </c>
+      <c r="F437" t="n">
+        <v>233601</v>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>100.36</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="D438" s="2" t="inlineStr"/>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>435041045</t>
+        </is>
+      </c>
+      <c r="F438" t="n">
+        <v>233608</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>143.73</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="D439" s="2" t="inlineStr"/>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>434273598</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>233588</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>52.87</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="D440" s="2" t="inlineStr"/>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>435274252</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>233636</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="D441" s="2" t="inlineStr"/>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>434545536</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>233641</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="D442" s="2" t="inlineStr"/>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>435470277</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>233663</v>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>124.60</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="D443" s="2" t="inlineStr"/>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>435317700</t>
+        </is>
+      </c>
+      <c r="F443" t="n">
+        <v>233658</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>124.14</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="D444" s="2" t="inlineStr"/>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>435378439</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>233660</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>183.26</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="D445" s="2" t="inlineStr"/>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>435323386</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>233675</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>143.04</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="D446" s="2" t="inlineStr"/>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>435047824</t>
+        </is>
+      </c>
+      <c r="F446" t="n">
+        <v>233677</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>496.80</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="D447" s="2" t="inlineStr"/>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>435659802</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>233673</v>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>101.81</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="D448" s="2" t="inlineStr"/>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>435736860</t>
+        </is>
+      </c>
+      <c r="F448" t="n">
+        <v>233674</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="D449" s="2" t="inlineStr"/>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>435651055</t>
+        </is>
+      </c>
+      <c r="F449" t="n">
+        <v>233692</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="D450" s="2" t="inlineStr"/>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>435389591</t>
+        </is>
+      </c>
+      <c r="F450" t="n">
+        <v>233698</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="D451" s="2" t="inlineStr"/>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>435475615</t>
+        </is>
+      </c>
+      <c r="F451" t="n">
+        <v>233695</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>101.63</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="D452" s="2" t="inlineStr"/>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>435526355</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>233693</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>100.36</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="D453" s="2" t="inlineStr"/>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>436219312</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>233709</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="D454" s="2" t="inlineStr"/>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>436243737</t>
+        </is>
+      </c>
+      <c r="F454" t="n">
+        <v>233731</v>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>100.33</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NU</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-19.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Suma plătită eMag:</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>6228.46</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Comision eMag cu TVA:</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>1775.6</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="F457" s="4" t="inlineStr">
+        <is>
+          <t>Total OP eMag:</t>
+        </is>
+      </c>
+      <c r="G457" s="4" t="n">
+        <v>4557.22</v>
       </c>
     </row>
   </sheetData>

--- a/8_August/opuri_export.xlsx
+++ b/8_August/opuri_export.xlsx
@@ -3983,7 +3983,7 @@
     <row r="272">
       <c r="C272" t="inlineStr">
         <is>
-          <t>eMag Perioada 2025-07-16 - 2025-07-31 (nortia_dp_12823661_02_08_2025 (4).xlsx + nortia_dp_12823666_02_08_2025 (8).xlsx)</t>
+          <t>eMag Perioada 2025-07-16 - 2025-07-31 (nortia_dp_12823666_02_08_2025 (8).xlsx + nortia_dp_12823661_02_08_2025 (4).xlsx)</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
@@ -5451,7 +5451,7 @@
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>eMag Perioada 2025-08-01 - 2025-08-15 (nortia_dp_12937396_17_08_2025 (1).xlsx + nortia_dp_12937390_17_08_2025 (1).xlsx)</t>
+          <t>eMag Perioada 2025-08-01 - 2025-08-15 (nortia_dp_12937390_17_08_2025 (1).xlsx + nortia_dp_12937396_17_08_2025 (1).xlsx)</t>
         </is>
       </c>
       <c r="D343" s="2" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>eMag Perioada 2025-08-16 - 2025-08-31 (nortia_dp_13052275_02_09_2025 (1).xlsx + nortia_dp_13052276_02_09_2025 (1).xlsx)</t>
+          <t>eMag Perioada 2025-08-16 - 2025-08-31 (nortia_dp_13052276_02_09_2025 (1).xlsx + nortia_dp_13052275_02_09_2025 (1).xlsx)</t>
         </is>
       </c>
       <c r="D389" s="2" t="inlineStr">
